--- a/output/csc_version_indicator_poverty_latest_year.xlsx
+++ b/output/csc_version_indicator_poverty_latest_year.xlsx
@@ -1220,7 +1220,7 @@
         <v>2018</v>
       </c>
       <c r="J2" s="1">
-        <v>31.100000381469727</v>
+        <v>31.1</v>
       </c>
     </row>
     <row r="3">
@@ -1316,7 +1316,7 @@
         <v>2020</v>
       </c>
       <c r="J5" s="1">
-        <v>13.699999809265137</v>
+        <v>13.7</v>
       </c>
     </row>
     <row r="6">
@@ -1380,7 +1380,7 @@
         <v>2018</v>
       </c>
       <c r="J7" s="1">
-        <v>0.40000000596046448</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="8">
@@ -1444,7 +1444,7 @@
         <v>2021</v>
       </c>
       <c r="J9" s="1">
-        <v>10.600000381469727</v>
+        <v>10.6</v>
       </c>
     </row>
     <row r="10">
@@ -1508,7 +1508,7 @@
         <v>2021</v>
       </c>
       <c r="J11" s="1">
-        <v>51.700000762939453</v>
+        <v>51.7</v>
       </c>
     </row>
     <row r="12">
@@ -1604,7 +1604,7 @@
         <v>2020</v>
       </c>
       <c r="J14" s="1">
-        <v>0.69999998807907104</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="15">
@@ -1700,7 +1700,7 @@
         <v>2005</v>
       </c>
       <c r="J17" s="1">
-        <v>31.299999237060547</v>
+        <v>31.3</v>
       </c>
     </row>
     <row r="18">
@@ -1732,7 +1732,7 @@
         <v>2013</v>
       </c>
       <c r="J18" s="1">
-        <v>65.099998474121094</v>
+        <v>65.09999999999999</v>
       </c>
     </row>
     <row r="19">
@@ -1796,7 +1796,7 @@
         <v>2020</v>
       </c>
       <c r="J20" s="1">
-        <v>0.10000000149011612</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="21">
@@ -1828,7 +1828,7 @@
         <v>2020</v>
       </c>
       <c r="J21" s="1">
-        <v>0.30000001192092896</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="22">
@@ -1842,7 +1842,7 @@
         <v>337</v>
       </c>
       <c r="D22" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="E22" t="s">
         <v>352</v>
@@ -1860,7 +1860,7 @@
         <v>2018</v>
       </c>
       <c r="J22" s="1">
-        <v>20.100000381469727</v>
+        <v>20.1</v>
       </c>
     </row>
     <row r="23">
@@ -1874,7 +1874,7 @@
         <v>337</v>
       </c>
       <c r="D23" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="E23" t="s">
         <v>352</v>
@@ -1892,7 +1892,7 @@
         <v>2018</v>
       </c>
       <c r="J23" s="1">
-        <v>83.599998474121094</v>
+        <v>83.59999999999999</v>
       </c>
     </row>
     <row r="24">
@@ -1924,7 +1924,7 @@
         <v>2018</v>
       </c>
       <c r="J24" s="1">
-        <v>31.200000762939453</v>
+        <v>31.2</v>
       </c>
     </row>
     <row r="25">
@@ -1956,7 +1956,7 @@
         <v>2018</v>
       </c>
       <c r="J25" s="1">
-        <v>87.199996948242188</v>
+        <v>87.2</v>
       </c>
     </row>
     <row r="26">
@@ -1988,7 +1988,7 @@
         <v>2022</v>
       </c>
       <c r="J26" s="1">
-        <v>9.6000003814697266</v>
+        <v>9.6</v>
       </c>
     </row>
     <row r="27">
@@ -2020,7 +2020,7 @@
         <v>2022</v>
       </c>
       <c r="J27" s="1">
-        <v>83.099998474121094</v>
+        <v>83.09999999999999</v>
       </c>
     </row>
     <row r="28">
@@ -2052,7 +2052,7 @@
         <v>2020</v>
       </c>
       <c r="J28" s="1">
-        <v>0.20000000298023224</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="29">
@@ -2116,7 +2116,7 @@
         <v>2011</v>
       </c>
       <c r="J30" s="1">
-        <v>0.10000000149011612</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="31">
@@ -2148,7 +2148,7 @@
         <v>2011</v>
       </c>
       <c r="J31" s="1">
-        <v>5.8000001907348633</v>
+        <v>5.8</v>
       </c>
     </row>
     <row r="32">
@@ -2212,7 +2212,7 @@
         <v>2020</v>
       </c>
       <c r="J33" s="1">
-        <v>1.2999999523162842</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="34">
@@ -2244,7 +2244,7 @@
         <v>1999</v>
       </c>
       <c r="J34" s="1">
-        <v>19.600000381469727</v>
+        <v>19.6</v>
       </c>
     </row>
     <row r="35">
@@ -2276,7 +2276,7 @@
         <v>1999</v>
       </c>
       <c r="J35" s="1">
-        <v>66.800003051757812</v>
+        <v>66.8</v>
       </c>
     </row>
     <row r="36">
@@ -2340,7 +2340,7 @@
         <v>2021</v>
       </c>
       <c r="J37" s="1">
-        <v>15.199999809265137</v>
+        <v>15.2</v>
       </c>
     </row>
     <row r="38">
@@ -2372,7 +2372,7 @@
         <v>2021</v>
       </c>
       <c r="J38" s="1">
-        <v>5.8000001907348633</v>
+        <v>5.8</v>
       </c>
     </row>
     <row r="39">
@@ -2404,7 +2404,7 @@
         <v>2021</v>
       </c>
       <c r="J39" s="1">
-        <v>28.399999618530273</v>
+        <v>28.4</v>
       </c>
     </row>
     <row r="40">
@@ -2468,7 +2468,7 @@
         <v>2022</v>
       </c>
       <c r="J41" s="1">
-        <v>8.3999996185302734</v>
+        <v>8.4</v>
       </c>
     </row>
     <row r="42">
@@ -2500,7 +2500,7 @@
         <v>2015</v>
       </c>
       <c r="J42" s="1">
-        <v>15.399999618530273</v>
+        <v>15.4</v>
       </c>
     </row>
     <row r="43">
@@ -2564,7 +2564,7 @@
         <v>2021</v>
       </c>
       <c r="J44" s="1">
-        <v>65.699996948242188</v>
+        <v>65.7</v>
       </c>
     </row>
     <row r="45">
@@ -2596,7 +2596,7 @@
         <v>2021</v>
       </c>
       <c r="J45" s="1">
-        <v>96.199996948242188</v>
+        <v>96.2</v>
       </c>
     </row>
     <row r="46">
@@ -2628,7 +2628,7 @@
         <v>2019</v>
       </c>
       <c r="J46" s="1">
-        <v>0.20000000298023224</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="47">
@@ -2660,7 +2660,7 @@
         <v>2019</v>
       </c>
       <c r="J47" s="1">
-        <v>0.69999998807907104</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="48">
@@ -2724,7 +2724,7 @@
         <v>2018</v>
       </c>
       <c r="J49" s="1">
-        <v>0.20000000298023224</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="50">
@@ -2756,7 +2756,7 @@
         <v>2020</v>
       </c>
       <c r="J50" s="1">
-        <v>0.69999998807907104</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="51">
@@ -2820,7 +2820,7 @@
         <v>2020</v>
       </c>
       <c r="J52" s="1">
-        <v>0.10000000149011612</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="53">
@@ -2852,7 +2852,7 @@
         <v>2020</v>
       </c>
       <c r="J53" s="1">
-        <v>24.700000762939453</v>
+        <v>24.7</v>
       </c>
     </row>
     <row r="54">
@@ -2916,7 +2916,7 @@
         <v>2018</v>
       </c>
       <c r="J55" s="1">
-        <v>75.599998474121094</v>
+        <v>75.59999999999999</v>
       </c>
     </row>
     <row r="56">
@@ -2948,7 +2948,7 @@
         <v>2014</v>
       </c>
       <c r="J56" s="1">
-        <v>25.700000762939453</v>
+        <v>25.7</v>
       </c>
     </row>
     <row r="57">
@@ -2980,7 +2980,7 @@
         <v>2014</v>
       </c>
       <c r="J57" s="1">
-        <v>74.800003051757812</v>
+        <v>74.8</v>
       </c>
     </row>
     <row r="58">
@@ -3012,7 +3012,7 @@
         <v>2012</v>
       </c>
       <c r="J58" s="1">
-        <v>69.900001525878906</v>
+        <v>69.90000000000001</v>
       </c>
     </row>
     <row r="59">
@@ -3044,7 +3044,7 @@
         <v>2012</v>
       </c>
       <c r="J59" s="1">
-        <v>97.400001525878906</v>
+        <v>97.40000000000001</v>
       </c>
     </row>
     <row r="60">
@@ -3076,7 +3076,7 @@
         <v>2011</v>
       </c>
       <c r="J60" s="1">
-        <v>35.400001525878906</v>
+        <v>35.4</v>
       </c>
     </row>
     <row r="61">
@@ -3140,7 +3140,7 @@
         <v>2021</v>
       </c>
       <c r="J62" s="1">
-        <v>6.5999999046325684</v>
+        <v>6.6</v>
       </c>
     </row>
     <row r="63">
@@ -3172,7 +3172,7 @@
         <v>2021</v>
       </c>
       <c r="J63" s="1">
-        <v>39.200000762939453</v>
+        <v>39.2</v>
       </c>
     </row>
     <row r="64">
@@ -3204,7 +3204,7 @@
         <v>2014</v>
       </c>
       <c r="J64" s="1">
-        <v>18.600000381469727</v>
+        <v>18.6</v>
       </c>
     </row>
     <row r="65">
@@ -3236,7 +3236,7 @@
         <v>2014</v>
       </c>
       <c r="J65" s="1">
-        <v>68.599998474121094</v>
+        <v>68.59999999999999</v>
       </c>
     </row>
     <row r="66">
@@ -3268,7 +3268,7 @@
         <v>2015</v>
       </c>
       <c r="J66" s="1">
-        <v>4.5999999046325684</v>
+        <v>4.6</v>
       </c>
     </row>
     <row r="67">
@@ -3300,7 +3300,7 @@
         <v>2015</v>
       </c>
       <c r="J67" s="1">
-        <v>50.900001525878906</v>
+        <v>50.9</v>
       </c>
     </row>
     <row r="68">
@@ -3332,7 +3332,7 @@
         <v>2022</v>
       </c>
       <c r="J68" s="1">
-        <v>0.89999997615814209</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="69">
@@ -3364,7 +3364,7 @@
         <v>2022</v>
       </c>
       <c r="J69" s="1">
-        <v>14.100000381469727</v>
+        <v>14.1</v>
       </c>
     </row>
     <row r="70">
@@ -3428,7 +3428,7 @@
         <v>2020</v>
       </c>
       <c r="J71" s="1">
-        <v>0.20000000298023224</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="72">
@@ -3492,7 +3492,7 @@
         <v>2020</v>
       </c>
       <c r="J73" s="1">
-        <v>0.40000000596046448</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="74">
@@ -3556,7 +3556,7 @@
         <v>2019</v>
       </c>
       <c r="J75" s="1">
-        <v>0.20000000298023224</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="76">
@@ -3588,7 +3588,7 @@
         <v>2017</v>
       </c>
       <c r="J76" s="1">
-        <v>19.100000381469727</v>
+        <v>19.1</v>
       </c>
     </row>
     <row r="77">
@@ -3652,7 +3652,7 @@
         <v>2020</v>
       </c>
       <c r="J78" s="1">
-        <v>0.20000000298023224</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="79">
@@ -3684,7 +3684,7 @@
         <v>2020</v>
       </c>
       <c r="J79" s="1">
-        <v>0.40000000596046448</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="80">
@@ -3716,7 +3716,7 @@
         <v>2021</v>
       </c>
       <c r="J80" s="1">
-        <v>0.89999997615814209</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="81">
@@ -3748,7 +3748,7 @@
         <v>2021</v>
       </c>
       <c r="J81" s="1">
-        <v>23.200000762939453</v>
+        <v>23.2</v>
       </c>
     </row>
     <row r="82">
@@ -3762,7 +3762,7 @@
         <v>339</v>
       </c>
       <c r="D82" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="E82" t="s">
         <v>350</v>
@@ -3794,7 +3794,7 @@
         <v>339</v>
       </c>
       <c r="D83" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="E83" t="s">
         <v>350</v>
@@ -3812,7 +3812,7 @@
         <v>2011</v>
       </c>
       <c r="J83" s="1">
-        <v>36.599998474121094</v>
+        <v>36.6</v>
       </c>
     </row>
     <row r="84">
@@ -3844,7 +3844,7 @@
         <v>2022</v>
       </c>
       <c r="J84" s="1">
-        <v>3.2000000476837158</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="85">
@@ -3876,7 +3876,7 @@
         <v>2022</v>
       </c>
       <c r="J85" s="1">
-        <v>29.899999618530273</v>
+        <v>29.9</v>
       </c>
     </row>
     <row r="86">
@@ -3940,7 +3940,7 @@
         <v>2019</v>
       </c>
       <c r="J87" s="1">
-        <v>68.800003051757812</v>
+        <v>68.8</v>
       </c>
     </row>
     <row r="88">
@@ -3972,7 +3972,7 @@
         <v>2020</v>
       </c>
       <c r="J88" s="1">
-        <v>0.89999997615814209</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="89">
@@ -4004,7 +4004,7 @@
         <v>2020</v>
       </c>
       <c r="J89" s="1">
-        <v>3.0999999046325684</v>
+        <v>3.1</v>
       </c>
     </row>
     <row r="90">
@@ -4036,7 +4036,7 @@
         <v>2020</v>
       </c>
       <c r="J90" s="1">
-        <v>0.30000001192092896</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="91">
@@ -4068,7 +4068,7 @@
         <v>2020</v>
       </c>
       <c r="J91" s="1">
-        <v>1.2999999523162842</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="92">
@@ -4132,7 +4132,7 @@
         <v>2015</v>
       </c>
       <c r="J93" s="1">
-        <v>90.900001525878906</v>
+        <v>90.90000000000001</v>
       </c>
     </row>
     <row r="94">
@@ -4196,7 +4196,7 @@
         <v>2020</v>
       </c>
       <c r="J95" s="1">
-        <v>0.10000000149011612</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="96">
@@ -4228,7 +4228,7 @@
         <v>2019</v>
       </c>
       <c r="J96" s="1">
-        <v>1.2999999523162842</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="97">
@@ -4260,7 +4260,7 @@
         <v>2019</v>
       </c>
       <c r="J97" s="1">
-        <v>52.599998474121094</v>
+        <v>52.6</v>
       </c>
     </row>
     <row r="98">
@@ -4292,7 +4292,7 @@
         <v>2020</v>
       </c>
       <c r="J98" s="1">
-        <v>0.10000000149011612</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="99">
@@ -4324,7 +4324,7 @@
         <v>2020</v>
       </c>
       <c r="J99" s="1">
-        <v>0.40000000596046448</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="100">
@@ -4388,7 +4388,7 @@
         <v>2013</v>
       </c>
       <c r="J101" s="1">
-        <v>74.800003051757812</v>
+        <v>74.8</v>
       </c>
     </row>
     <row r="102">
@@ -4452,7 +4452,7 @@
         <v>2017</v>
       </c>
       <c r="J103" s="1">
-        <v>31.200000762939453</v>
+        <v>31.2</v>
       </c>
     </row>
     <row r="104">
@@ -4516,7 +4516,7 @@
         <v>2020</v>
       </c>
       <c r="J105" s="1">
-        <v>0.69999998807907104</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="106">
@@ -4580,7 +4580,7 @@
         <v>2021</v>
       </c>
       <c r="J107" s="1">
-        <v>55.400001525878906</v>
+        <v>55.4</v>
       </c>
     </row>
     <row r="108">
@@ -4612,7 +4612,7 @@
         <v>2016</v>
       </c>
       <c r="J108" s="1">
-        <v>25.200000762939453</v>
+        <v>25.2</v>
       </c>
     </row>
     <row r="109">
@@ -4676,7 +4676,7 @@
         <v>2018</v>
       </c>
       <c r="J110" s="1">
-        <v>13.800000190734863</v>
+        <v>13.8</v>
       </c>
     </row>
     <row r="111">
@@ -4708,7 +4708,7 @@
         <v>2018</v>
       </c>
       <c r="J111" s="1">
-        <v>86.800003051757812</v>
+        <v>86.8</v>
       </c>
     </row>
     <row r="112">
@@ -4740,7 +4740,7 @@
         <v>2020</v>
       </c>
       <c r="J112" s="1">
-        <v>17.200000762939453</v>
+        <v>17.2</v>
       </c>
     </row>
     <row r="113">
@@ -4772,7 +4772,7 @@
         <v>2020</v>
       </c>
       <c r="J113" s="1">
-        <v>80.599998474121094</v>
+        <v>80.59999999999999</v>
       </c>
     </row>
     <row r="114">
@@ -4804,7 +4804,7 @@
         <v>2018</v>
       </c>
       <c r="J114" s="1">
-        <v>21.700000762939453</v>
+        <v>21.7</v>
       </c>
     </row>
     <row r="115">
@@ -4836,7 +4836,7 @@
         <v>2018</v>
       </c>
       <c r="J115" s="1">
-        <v>87.199996948242188</v>
+        <v>87.2</v>
       </c>
     </row>
     <row r="116">
@@ -4868,7 +4868,7 @@
         <v>2020</v>
       </c>
       <c r="J116" s="1">
-        <v>0.80000001192092896</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="117">
@@ -4900,7 +4900,7 @@
         <v>2020</v>
       </c>
       <c r="J117" s="1">
-        <v>3.9000000953674316</v>
+        <v>3.9</v>
       </c>
     </row>
     <row r="118">
@@ -4964,7 +4964,7 @@
         <v>2014</v>
       </c>
       <c r="J119" s="1">
-        <v>55.400001525878906</v>
+        <v>55.4</v>
       </c>
     </row>
     <row r="120">
@@ -4996,7 +4996,7 @@
         <v>1998</v>
       </c>
       <c r="J120" s="1">
-        <v>11.899999618530273</v>
+        <v>11.9</v>
       </c>
     </row>
     <row r="121">
@@ -5028,7 +5028,7 @@
         <v>1998</v>
       </c>
       <c r="J121" s="1">
-        <v>56.599998474121094</v>
+        <v>56.6</v>
       </c>
     </row>
     <row r="122">
@@ -5060,7 +5060,7 @@
         <v>2019</v>
       </c>
       <c r="J122" s="1">
-        <v>12.699999809265137</v>
+        <v>12.7</v>
       </c>
     </row>
     <row r="123">
@@ -5124,7 +5124,7 @@
         <v>2020</v>
       </c>
       <c r="J124" s="1">
-        <v>0.30000001192092896</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="125">
@@ -5156,7 +5156,7 @@
         <v>2020</v>
       </c>
       <c r="J125" s="1">
-        <v>2.0999999046325684</v>
+        <v>2.1</v>
       </c>
     </row>
     <row r="126">
@@ -5188,7 +5188,7 @@
         <v>2012</v>
       </c>
       <c r="J126" s="1">
-        <v>29.200000762939453</v>
+        <v>29.2</v>
       </c>
     </row>
     <row r="127">
@@ -5220,7 +5220,7 @@
         <v>2012</v>
       </c>
       <c r="J127" s="1">
-        <v>85.800003051757812</v>
+        <v>85.8</v>
       </c>
     </row>
     <row r="128">
@@ -5252,7 +5252,7 @@
         <v>2020</v>
       </c>
       <c r="J128" s="1">
-        <v>0.40000000596046448</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="129">
@@ -5298,7 +5298,7 @@
         <v>341</v>
       </c>
       <c r="D130" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="E130" t="s">
         <v>350</v>
@@ -5330,7 +5330,7 @@
         <v>341</v>
       </c>
       <c r="D131" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="E131" t="s">
         <v>350</v>
@@ -5348,7 +5348,7 @@
         <v>2022</v>
       </c>
       <c r="J131" s="1">
-        <v>60.400001525878906</v>
+        <v>60.4</v>
       </c>
     </row>
     <row r="132">
@@ -5380,7 +5380,7 @@
         <v>2021</v>
       </c>
       <c r="J132" s="1">
-        <v>11.899999618530273</v>
+        <v>11.9</v>
       </c>
     </row>
     <row r="133">
@@ -5444,7 +5444,7 @@
         <v>2020</v>
       </c>
       <c r="J134" s="1">
-        <v>0.10000000149011612</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="135">
@@ -5476,7 +5476,7 @@
         <v>2020</v>
       </c>
       <c r="J135" s="1">
-        <v>0.20000000298023224</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="136">
@@ -5508,7 +5508,7 @@
         <v>2019</v>
       </c>
       <c r="J136" s="1">
-        <v>0.89999997615814209</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="137">
@@ -5540,7 +5540,7 @@
         <v>2019</v>
       </c>
       <c r="J137" s="1">
-        <v>26.200000762939453</v>
+        <v>26.2</v>
       </c>
     </row>
     <row r="138">
@@ -5572,7 +5572,7 @@
         <v>2012</v>
       </c>
       <c r="J138" s="1">
-        <v>0.10000000149011612</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="139">
@@ -5604,7 +5604,7 @@
         <v>2012</v>
       </c>
       <c r="J139" s="1">
-        <v>24.700000762939453</v>
+        <v>24.7</v>
       </c>
     </row>
     <row r="140">
@@ -5732,7 +5732,7 @@
         <v>2018</v>
       </c>
       <c r="J143" s="1">
-        <v>3.2000000476837158</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="144">
@@ -5764,7 +5764,7 @@
         <v>2020</v>
       </c>
       <c r="J144" s="1">
-        <v>0.80000001192092896</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="145">
@@ -5796,7 +5796,7 @@
         <v>2020</v>
       </c>
       <c r="J145" s="1">
-        <v>2.2000000476837158</v>
+        <v>2.2</v>
       </c>
     </row>
     <row r="146">
@@ -5828,7 +5828,7 @@
         <v>2004</v>
       </c>
       <c r="J146" s="1">
-        <v>1.2000000476837158</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="147">
@@ -5860,7 +5860,7 @@
         <v>2004</v>
       </c>
       <c r="J147" s="1">
-        <v>29.100000381469727</v>
+        <v>29.1</v>
       </c>
     </row>
     <row r="148">
@@ -5924,7 +5924,7 @@
         <v>2010</v>
       </c>
       <c r="J149" s="1">
-        <v>8.1999998092651367</v>
+        <v>8.199999999999999</v>
       </c>
     </row>
     <row r="150">
@@ -5956,7 +5956,7 @@
         <v>2013</v>
       </c>
       <c r="J150" s="1">
-        <v>0.69999998807907104</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="151">
@@ -5988,7 +5988,7 @@
         <v>2013</v>
       </c>
       <c r="J151" s="1">
-        <v>1.3999999761581421</v>
+        <v>1.4</v>
       </c>
     </row>
     <row r="152">
@@ -6052,7 +6052,7 @@
         <v>2018</v>
       </c>
       <c r="J153" s="1">
-        <v>14.300000190734863</v>
+        <v>14.3</v>
       </c>
     </row>
     <row r="154">
@@ -6084,7 +6084,7 @@
         <v>2021</v>
       </c>
       <c r="J154" s="1">
-        <v>36.099998474121094</v>
+        <v>36.1</v>
       </c>
     </row>
     <row r="155">
@@ -6116,7 +6116,7 @@
         <v>2021</v>
       </c>
       <c r="J155" s="1">
-        <v>91.300003051757812</v>
+        <v>91.3</v>
       </c>
     </row>
     <row r="156">
@@ -6148,7 +6148,7 @@
         <v>2020</v>
       </c>
       <c r="J156" s="1">
-        <v>1.2999999523162842</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="157">
@@ -6180,7 +6180,7 @@
         <v>2020</v>
       </c>
       <c r="J157" s="1">
-        <v>67.599998474121094</v>
+        <v>67.59999999999999</v>
       </c>
     </row>
     <row r="158">
@@ -6212,7 +6212,7 @@
         <v>2019</v>
       </c>
       <c r="J158" s="1">
-        <v>1.7000000476837158</v>
+        <v>1.7</v>
       </c>
     </row>
     <row r="159">
@@ -6244,7 +6244,7 @@
         <v>2019</v>
       </c>
       <c r="J159" s="1">
-        <v>68.900001525878906</v>
+        <v>68.90000000000001</v>
       </c>
     </row>
     <row r="160">
@@ -6276,7 +6276,7 @@
         <v>2016</v>
       </c>
       <c r="J160" s="1">
-        <v>0.20000000298023224</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="161">
@@ -6308,7 +6308,7 @@
         <v>2016</v>
       </c>
       <c r="J161" s="1">
-        <v>1.2000000476837158</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="162">
@@ -6340,7 +6340,7 @@
         <v>2018</v>
       </c>
       <c r="J162" s="1">
-        <v>7.0999999046325684</v>
+        <v>7.1</v>
       </c>
     </row>
     <row r="163">
@@ -6436,7 +6436,7 @@
         <v>2011</v>
       </c>
       <c r="J165" s="1">
-        <v>1.7000000476837158</v>
+        <v>1.7</v>
       </c>
     </row>
     <row r="166">
@@ -6468,7 +6468,7 @@
         <v>2016</v>
       </c>
       <c r="J166" s="1">
-        <v>27.600000381469727</v>
+        <v>27.6</v>
       </c>
     </row>
     <row r="167">
@@ -6500,7 +6500,7 @@
         <v>2016</v>
       </c>
       <c r="J167" s="1">
-        <v>88.900001525878906</v>
+        <v>88.90000000000001</v>
       </c>
     </row>
     <row r="168">
@@ -6532,7 +6532,7 @@
         <v>2016</v>
       </c>
       <c r="J168" s="1">
-        <v>5.0999999046325684</v>
+        <v>5.1</v>
       </c>
     </row>
     <row r="169">
@@ -6564,7 +6564,7 @@
         <v>2016</v>
       </c>
       <c r="J169" s="1">
-        <v>25.299999237060547</v>
+        <v>25.3</v>
       </c>
     </row>
     <row r="170">
@@ -6578,7 +6578,7 @@
         <v>342</v>
       </c>
       <c r="D170" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="E170" t="s">
         <v>352</v>
@@ -6610,7 +6610,7 @@
         <v>342</v>
       </c>
       <c r="D171" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="E171" t="s">
         <v>352</v>
@@ -6628,7 +6628,7 @@
         <v>2019</v>
       </c>
       <c r="J171" s="1">
-        <v>49.299999237060547</v>
+        <v>49.3</v>
       </c>
     </row>
     <row r="172">
@@ -6660,7 +6660,7 @@
         <v>2017</v>
       </c>
       <c r="J172" s="1">
-        <v>32.400001525878906</v>
+        <v>32.4</v>
       </c>
     </row>
     <row r="173">
@@ -6724,7 +6724,7 @@
         <v>2020</v>
       </c>
       <c r="J174" s="1">
-        <v>0.20000000298023224</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="175">
@@ -6756,7 +6756,7 @@
         <v>2020</v>
       </c>
       <c r="J175" s="1">
-        <v>1.6000000238418579</v>
+        <v>1.6</v>
       </c>
     </row>
     <row r="176">
@@ -6916,7 +6916,7 @@
         <v>2013</v>
       </c>
       <c r="J180" s="1">
-        <v>1.3999999761581421</v>
+        <v>1.4</v>
       </c>
     </row>
     <row r="181">
@@ -6948,7 +6948,7 @@
         <v>2013</v>
       </c>
       <c r="J181" s="1">
-        <v>42.099998474121094</v>
+        <v>42.1</v>
       </c>
     </row>
     <row r="182">
@@ -7012,7 +7012,7 @@
         <v>2021</v>
       </c>
       <c r="J183" s="1">
-        <v>14.399999618530273</v>
+        <v>14.4</v>
       </c>
     </row>
     <row r="184">
@@ -7044,7 +7044,7 @@
         <v>2012</v>
       </c>
       <c r="J184" s="1">
-        <v>80.699996948242188</v>
+        <v>80.7</v>
       </c>
     </row>
     <row r="185">
@@ -7076,7 +7076,7 @@
         <v>2012</v>
       </c>
       <c r="J185" s="1">
-        <v>98.199996948242188</v>
+        <v>98.2</v>
       </c>
     </row>
     <row r="186">
@@ -7140,7 +7140,7 @@
         <v>2019</v>
       </c>
       <c r="J187" s="1">
-        <v>3.9000000953674316</v>
+        <v>3.9</v>
       </c>
     </row>
     <row r="188">
@@ -7172,7 +7172,7 @@
         <v>2020</v>
       </c>
       <c r="J188" s="1">
-        <v>3.0999999046325684</v>
+        <v>3.1</v>
       </c>
     </row>
     <row r="189">
@@ -7236,7 +7236,7 @@
         <v>2019</v>
       </c>
       <c r="J190" s="1">
-        <v>0.89999997615814209</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="191">
@@ -7300,7 +7300,7 @@
         <v>2019</v>
       </c>
       <c r="J192" s="1">
-        <v>2.7000000476837158</v>
+        <v>2.7</v>
       </c>
     </row>
     <row r="193">
@@ -7364,7 +7364,7 @@
         <v>2018</v>
       </c>
       <c r="J194" s="1">
-        <v>15.199999809265137</v>
+        <v>15.2</v>
       </c>
     </row>
     <row r="195">
@@ -7428,7 +7428,7 @@
         <v>2020</v>
       </c>
       <c r="J196" s="1">
-        <v>0.30000001192092896</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="197">
@@ -7460,7 +7460,7 @@
         <v>2020</v>
       </c>
       <c r="J197" s="1">
-        <v>0.80000001192092896</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="198">
@@ -7524,7 +7524,7 @@
         <v>2017</v>
       </c>
       <c r="J199" s="1">
-        <v>68.199996948242188</v>
+        <v>68.2</v>
       </c>
     </row>
     <row r="200">
@@ -7556,7 +7556,7 @@
         <v>2018</v>
       </c>
       <c r="J200" s="1">
-        <v>2.7999999523162842</v>
+        <v>2.8</v>
       </c>
     </row>
     <row r="201">
@@ -7620,7 +7620,7 @@
         <v>2018</v>
       </c>
       <c r="J202" s="1">
-        <v>0.69999998807907104</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="203">
@@ -7652,7 +7652,7 @@
         <v>2018</v>
       </c>
       <c r="J203" s="1">
-        <v>38.299999237060547</v>
+        <v>38.3</v>
       </c>
     </row>
     <row r="204">
@@ -7684,7 +7684,7 @@
         <v>2019</v>
       </c>
       <c r="J204" s="1">
-        <v>74.400001525878906</v>
+        <v>74.40000000000001</v>
       </c>
     </row>
     <row r="205">
@@ -7716,7 +7716,7 @@
         <v>2019</v>
       </c>
       <c r="J205" s="1">
-        <v>96.099998474121094</v>
+        <v>96.09999999999999</v>
       </c>
     </row>
     <row r="206">
@@ -7780,7 +7780,7 @@
         <v>2014</v>
       </c>
       <c r="J207" s="1">
-        <v>66.800003051757812</v>
+        <v>66.8</v>
       </c>
     </row>
     <row r="208">
@@ -7794,7 +7794,7 @@
         <v>337</v>
       </c>
       <c r="D208" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="E208" t="s">
         <v>350</v>
@@ -7812,7 +7812,7 @@
         <v>2017</v>
       </c>
       <c r="J208" s="1">
-        <v>0.10000000149011612</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="209">
@@ -7826,7 +7826,7 @@
         <v>337</v>
       </c>
       <c r="D209" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="E209" t="s">
         <v>350</v>
@@ -7876,7 +7876,7 @@
         <v>2019</v>
       </c>
       <c r="J210" s="1">
-        <v>70.099998474121094</v>
+        <v>70.09999999999999</v>
       </c>
     </row>
     <row r="211">
@@ -7908,7 +7908,7 @@
         <v>2019</v>
       </c>
       <c r="J211" s="1">
-        <v>97.300003051757812</v>
+        <v>97.3</v>
       </c>
     </row>
     <row r="212">
@@ -7972,7 +7972,7 @@
         <v>2018</v>
       </c>
       <c r="J213" s="1">
-        <v>3.4000000953674316</v>
+        <v>3.4</v>
       </c>
     </row>
     <row r="214">
@@ -8004,7 +8004,7 @@
         <v>2015</v>
       </c>
       <c r="J214" s="1">
-        <v>15.600000381469727</v>
+        <v>15.6</v>
       </c>
     </row>
     <row r="215">
@@ -8036,7 +8036,7 @@
         <v>2015</v>
       </c>
       <c r="J215" s="1">
-        <v>57.299999237060547</v>
+        <v>57.3</v>
       </c>
     </row>
     <row r="216">
@@ -8068,7 +8068,7 @@
         <v>2018</v>
       </c>
       <c r="J216" s="1">
-        <v>50.900001525878906</v>
+        <v>50.9</v>
       </c>
     </row>
     <row r="217">
@@ -8132,7 +8132,7 @@
         <v>2018</v>
       </c>
       <c r="J218" s="1">
-        <v>30.899999618530273</v>
+        <v>30.9</v>
       </c>
     </row>
     <row r="219">
@@ -8164,7 +8164,7 @@
         <v>2018</v>
       </c>
       <c r="J219" s="1">
-        <v>90.800003051757812</v>
+        <v>90.8</v>
       </c>
     </row>
     <row r="220">
@@ -8196,7 +8196,7 @@
         <v>2014</v>
       </c>
       <c r="J220" s="1">
-        <v>3.9000000953674316</v>
+        <v>3.9</v>
       </c>
     </row>
     <row r="221">
@@ -8228,7 +8228,7 @@
         <v>2014</v>
       </c>
       <c r="J221" s="1">
-        <v>42.099998474121094</v>
+        <v>42.1</v>
       </c>
     </row>
     <row r="222">
@@ -8292,7 +8292,7 @@
         <v>2020</v>
       </c>
       <c r="J223" s="1">
-        <v>0.20000000298023224</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="224">
@@ -8324,7 +8324,7 @@
         <v>2019</v>
       </c>
       <c r="J224" s="1">
-        <v>0.20000000298023224</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="225">
@@ -8370,7 +8370,7 @@
         <v>342</v>
       </c>
       <c r="D226" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="E226" t="s">
         <v>352</v>
@@ -8388,7 +8388,7 @@
         <v>2010</v>
       </c>
       <c r="J226" s="1">
-        <v>8.1999998092651367</v>
+        <v>8.199999999999999</v>
       </c>
     </row>
     <row r="227">
@@ -8402,7 +8402,7 @@
         <v>342</v>
       </c>
       <c r="D227" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="E227" t="s">
         <v>352</v>
@@ -8420,7 +8420,7 @@
         <v>2010</v>
       </c>
       <c r="J227" s="1">
-        <v>80.400001525878906</v>
+        <v>80.40000000000001</v>
       </c>
     </row>
     <row r="228">
@@ -8434,7 +8434,7 @@
         <v>341</v>
       </c>
       <c r="D228" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="E228" t="s">
         <v>350</v>
@@ -8452,7 +8452,7 @@
         <v>2012</v>
       </c>
       <c r="J228" s="1">
-        <v>1.7000000476837158</v>
+        <v>1.7</v>
       </c>
     </row>
     <row r="229">
@@ -8466,7 +8466,7 @@
         <v>341</v>
       </c>
       <c r="D229" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="E229" t="s">
         <v>350</v>
@@ -8484,7 +8484,7 @@
         <v>2012</v>
       </c>
       <c r="J229" s="1">
-        <v>61.700000762939453</v>
+        <v>61.7</v>
       </c>
     </row>
     <row r="230">
@@ -8516,7 +8516,7 @@
         <v>2018</v>
       </c>
       <c r="J230" s="1">
-        <v>4.9000000953674316</v>
+        <v>4.9</v>
       </c>
     </row>
     <row r="231">
@@ -8580,7 +8580,7 @@
         <v>2021</v>
       </c>
       <c r="J232" s="1">
-        <v>1.1000000238418579</v>
+        <v>1.1</v>
       </c>
     </row>
     <row r="233">
@@ -8612,7 +8612,7 @@
         <v>2021</v>
       </c>
       <c r="J233" s="1">
-        <v>12.899999618530273</v>
+        <v>12.9</v>
       </c>
     </row>
     <row r="234">
@@ -8644,7 +8644,7 @@
         <v>2021</v>
       </c>
       <c r="J234" s="1">
-        <v>2.9000000953674316</v>
+        <v>2.9</v>
       </c>
     </row>
     <row r="235">
@@ -8676,7 +8676,7 @@
         <v>2021</v>
       </c>
       <c r="J235" s="1">
-        <v>33.700000762939453</v>
+        <v>33.7</v>
       </c>
     </row>
     <row r="236">
@@ -8740,7 +8740,7 @@
         <v>2021</v>
       </c>
       <c r="J237" s="1">
-        <v>55.299999237060547</v>
+        <v>55.3</v>
       </c>
     </row>
     <row r="238">
@@ -8772,7 +8772,7 @@
         <v>2009</v>
       </c>
       <c r="J238" s="1">
-        <v>39.700000762939453</v>
+        <v>39.7</v>
       </c>
     </row>
     <row r="239">
@@ -8804,7 +8804,7 @@
         <v>2009</v>
       </c>
       <c r="J239" s="1">
-        <v>90.199996948242188</v>
+        <v>90.2</v>
       </c>
     </row>
     <row r="240">
@@ -8836,7 +8836,7 @@
         <v>2019</v>
       </c>
       <c r="J240" s="1">
-        <v>0.10000000149011612</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="241">
@@ -8868,7 +8868,7 @@
         <v>2019</v>
       </c>
       <c r="J241" s="1">
-        <v>0.80000001192092896</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="242">
@@ -8932,7 +8932,7 @@
         <v>2020</v>
       </c>
       <c r="J243" s="1">
-        <v>2.5999999046325684</v>
+        <v>2.6</v>
       </c>
     </row>
     <row r="244">
@@ -8964,7 +8964,7 @@
         <v>2022</v>
       </c>
       <c r="J244" s="1">
-        <v>1.2999999523162842</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="245">
@@ -8996,7 +8996,7 @@
         <v>2022</v>
       </c>
       <c r="J245" s="1">
-        <v>19.899999618530273</v>
+        <v>19.9</v>
       </c>
     </row>
     <row r="246">
@@ -9074,7 +9074,7 @@
         <v>338</v>
       </c>
       <c r="D248" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="E248" t="s">
         <v>350</v>
@@ -9092,7 +9092,7 @@
         <v>2020</v>
       </c>
       <c r="J248" s="1">
-        <v>1.3999999761581421</v>
+        <v>1.4</v>
       </c>
     </row>
     <row r="249">
@@ -9106,7 +9106,7 @@
         <v>338</v>
       </c>
       <c r="D249" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="E249" t="s">
         <v>350</v>
@@ -9188,7 +9188,7 @@
         <v>2020</v>
       </c>
       <c r="J251" s="1">
-        <v>4.0999999046325684</v>
+        <v>4.1</v>
       </c>
     </row>
     <row r="252">
@@ -9252,7 +9252,7 @@
         <v>2016</v>
       </c>
       <c r="J253" s="1">
-        <v>92.199996948242188</v>
+        <v>92.2</v>
       </c>
     </row>
     <row r="254">
@@ -9266,7 +9266,7 @@
         <v>337</v>
       </c>
       <c r="D254" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="E254" t="s">
         <v>352</v>
@@ -9284,7 +9284,7 @@
         <v>2014</v>
       </c>
       <c r="J254" s="1">
-        <v>15.300000190734863</v>
+        <v>15.3</v>
       </c>
     </row>
     <row r="255">
@@ -9298,7 +9298,7 @@
         <v>337</v>
       </c>
       <c r="D255" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="E255" t="s">
         <v>352</v>
@@ -9316,7 +9316,7 @@
         <v>2014</v>
       </c>
       <c r="J255" s="1">
-        <v>86.199996948242188</v>
+        <v>86.2</v>
       </c>
     </row>
     <row r="256">
@@ -9348,7 +9348,7 @@
         <v>2018</v>
       </c>
       <c r="J256" s="1">
-        <v>9.1999998092651367</v>
+        <v>9.199999999999999</v>
       </c>
     </row>
     <row r="257">
@@ -9380,7 +9380,7 @@
         <v>2018</v>
       </c>
       <c r="J257" s="1">
-        <v>74.400001525878906</v>
+        <v>74.40000000000001</v>
       </c>
     </row>
     <row r="258">
@@ -9412,7 +9412,7 @@
         <v>2012</v>
       </c>
       <c r="J258" s="1">
-        <v>26.600000381469727</v>
+        <v>26.6</v>
       </c>
     </row>
     <row r="259">
@@ -9476,7 +9476,7 @@
         <v>2018</v>
       </c>
       <c r="J260" s="1">
-        <v>26.100000381469727</v>
+        <v>26.1</v>
       </c>
     </row>
     <row r="261">
@@ -9508,7 +9508,7 @@
         <v>2018</v>
       </c>
       <c r="J261" s="1">
-        <v>89.900001525878906</v>
+        <v>89.90000000000001</v>
       </c>
     </row>
     <row r="262">
@@ -9540,7 +9540,7 @@
         <v>2022</v>
       </c>
       <c r="J262" s="1">
-        <v>3.4000000953674316</v>
+        <v>3.4</v>
       </c>
     </row>
     <row r="263">
@@ -9604,7 +9604,7 @@
         <v>2020</v>
       </c>
       <c r="J264" s="1">
-        <v>1.6000000238418579</v>
+        <v>1.6</v>
       </c>
     </row>
     <row r="265">
@@ -9636,7 +9636,7 @@
         <v>2020</v>
       </c>
       <c r="J265" s="1">
-        <v>10.100000381469727</v>
+        <v>10.1</v>
       </c>
     </row>
     <row r="266">
@@ -9668,7 +9668,7 @@
         <v>2016</v>
       </c>
       <c r="J266" s="1">
-        <v>67.300003051757812</v>
+        <v>67.3</v>
       </c>
     </row>
     <row r="267">
@@ -9700,7 +9700,7 @@
         <v>2016</v>
       </c>
       <c r="J267" s="1">
-        <v>96.599998474121094</v>
+        <v>96.59999999999999</v>
       </c>
     </row>
     <row r="268">
@@ -9732,7 +9732,7 @@
         <v>2017</v>
       </c>
       <c r="J268" s="1">
-        <v>15.600000381469727</v>
+        <v>15.6</v>
       </c>
     </row>
     <row r="269">
@@ -9764,7 +9764,7 @@
         <v>2017</v>
       </c>
       <c r="J269" s="1">
-        <v>79.699996948242188</v>
+        <v>79.7</v>
       </c>
     </row>
     <row r="270">
@@ -9796,7 +9796,7 @@
         <v>1999</v>
       </c>
       <c r="J270" s="1">
-        <v>18.399999618530273</v>
+        <v>18.4</v>
       </c>
     </row>
     <row r="271">
@@ -9860,7 +9860,7 @@
         <v>2019</v>
       </c>
       <c r="J272" s="1">
-        <v>0.10000000149011612</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="273">
@@ -9988,7 +9988,7 @@
         <v>2020</v>
       </c>
       <c r="J276" s="1">
-        <v>0.40000000596046448</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="277">
@@ -10020,7 +10020,7 @@
         <v>2020</v>
       </c>
       <c r="J277" s="1">
-        <v>0.89999997615814209</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="278">
@@ -10052,7 +10052,7 @@
         <v>2016</v>
       </c>
       <c r="J278" s="1">
-        <v>36.099998474121094</v>
+        <v>36.1</v>
       </c>
     </row>
     <row r="279">
@@ -10084,7 +10084,7 @@
         <v>2016</v>
       </c>
       <c r="J279" s="1">
-        <v>78.099998474121094</v>
+        <v>78.09999999999999</v>
       </c>
     </row>
     <row r="280">
@@ -10148,7 +10148,7 @@
         <v>2018</v>
       </c>
       <c r="J281" s="1">
-        <v>6.6999998092651367</v>
+        <v>6.7</v>
       </c>
     </row>
     <row r="282">
@@ -10180,7 +10180,7 @@
         <v>2003</v>
       </c>
       <c r="J282" s="1">
-        <v>1.1000000238418579</v>
+        <v>1.1</v>
       </c>
     </row>
     <row r="283">
@@ -10244,7 +10244,7 @@
         <v>2018</v>
       </c>
       <c r="J284" s="1">
-        <v>30.899999618530273</v>
+        <v>30.9</v>
       </c>
     </row>
     <row r="285">
@@ -10276,7 +10276,7 @@
         <v>2018</v>
       </c>
       <c r="J285" s="1">
-        <v>89.400001525878906</v>
+        <v>89.40000000000001</v>
       </c>
     </row>
     <row r="286">
@@ -10308,7 +10308,7 @@
         <v>2018</v>
       </c>
       <c r="J286" s="1">
-        <v>28.399999618530273</v>
+        <v>28.4</v>
       </c>
     </row>
     <row r="287">
@@ -10404,7 +10404,7 @@
         <v>2021</v>
       </c>
       <c r="J289" s="1">
-        <v>12.199999809265137</v>
+        <v>12.2</v>
       </c>
     </row>
     <row r="290">
@@ -10436,7 +10436,7 @@
         <v>2015</v>
       </c>
       <c r="J290" s="1">
-        <v>6.0999999046325684</v>
+        <v>6.1</v>
       </c>
     </row>
     <row r="291">
@@ -10468,7 +10468,7 @@
         <v>2015</v>
       </c>
       <c r="J291" s="1">
-        <v>66.400001525878906</v>
+        <v>66.40000000000001</v>
       </c>
     </row>
     <row r="292">
@@ -10500,7 +10500,7 @@
         <v>1998</v>
       </c>
       <c r="J292" s="1">
-        <v>43.099998474121094</v>
+        <v>43.1</v>
       </c>
     </row>
     <row r="293">
@@ -10532,7 +10532,7 @@
         <v>1998</v>
       </c>
       <c r="J293" s="1">
-        <v>91.300003051757812</v>
+        <v>91.3</v>
       </c>
     </row>
     <row r="294">
@@ -10564,7 +10564,7 @@
         <v>2014</v>
       </c>
       <c r="J294" s="1">
-        <v>24.399999618530273</v>
+        <v>24.4</v>
       </c>
     </row>
     <row r="295">
@@ -10596,7 +10596,7 @@
         <v>2014</v>
       </c>
       <c r="J295" s="1">
-        <v>94.599998474121094</v>
+        <v>94.59999999999999</v>
       </c>
     </row>
     <row r="296">
@@ -10628,7 +10628,7 @@
         <v>2015</v>
       </c>
       <c r="J296" s="1">
-        <v>1.7999999523162842</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="297">
@@ -10660,7 +10660,7 @@
         <v>2015</v>
       </c>
       <c r="J297" s="1">
-        <v>47.900001525878906</v>
+        <v>47.9</v>
       </c>
     </row>
     <row r="298">
@@ -10692,7 +10692,7 @@
         <v>1992</v>
       </c>
       <c r="J298" s="1">
-        <v>2.0999999046325684</v>
+        <v>2.1</v>
       </c>
     </row>
     <row r="299">
@@ -10724,7 +10724,7 @@
         <v>1992</v>
       </c>
       <c r="J299" s="1">
-        <v>30.200000762939453</v>
+        <v>30.2</v>
       </c>
     </row>
     <row r="300">
@@ -10756,7 +10756,7 @@
         <v>2015</v>
       </c>
       <c r="J300" s="1">
-        <v>0.10000000149011612</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="301">
@@ -10788,7 +10788,7 @@
         <v>2015</v>
       </c>
       <c r="J301" s="1">
-        <v>17.899999618530273</v>
+        <v>17.9</v>
       </c>
     </row>
     <row r="302">
@@ -10820,7 +10820,7 @@
         <v>2019</v>
       </c>
       <c r="J302" s="1">
-        <v>0.40000000596046448</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="303">
@@ -10852,7 +10852,7 @@
         <v>2019</v>
       </c>
       <c r="J303" s="1">
-        <v>12.600000381469727</v>
+        <v>12.6</v>
       </c>
     </row>
     <row r="304">
@@ -10884,7 +10884,7 @@
         <v>2010</v>
       </c>
       <c r="J304" s="1">
-        <v>3.5999999046325684</v>
+        <v>3.6</v>
       </c>
     </row>
     <row r="305">
@@ -10916,7 +10916,7 @@
         <v>2010</v>
       </c>
       <c r="J305" s="1">
-        <v>56.599998474121094</v>
+        <v>56.6</v>
       </c>
     </row>
     <row r="306">
@@ -10930,7 +10930,7 @@
         <v>337</v>
       </c>
       <c r="D306" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="E306" t="s">
         <v>352</v>
@@ -10948,7 +10948,7 @@
         <v>2018</v>
       </c>
       <c r="J306" s="1">
-        <v>44.900001525878906</v>
+        <v>44.9</v>
       </c>
     </row>
     <row r="307">
@@ -10962,7 +10962,7 @@
         <v>337</v>
       </c>
       <c r="D307" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="E307" t="s">
         <v>352</v>
@@ -10980,7 +10980,7 @@
         <v>2018</v>
       </c>
       <c r="J307" s="1">
-        <v>92.300003051757812</v>
+        <v>92.3</v>
       </c>
     </row>
     <row r="308">
@@ -11012,7 +11012,7 @@
         <v>2019</v>
       </c>
       <c r="J308" s="1">
-        <v>42.200000762939453</v>
+        <v>42.2</v>
       </c>
     </row>
     <row r="309">
@@ -11044,7 +11044,7 @@
         <v>2019</v>
       </c>
       <c r="J309" s="1">
-        <v>91.099998474121094</v>
+        <v>91.09999999999999</v>
       </c>
     </row>
     <row r="310">
@@ -11108,7 +11108,7 @@
         <v>2020</v>
       </c>
       <c r="J311" s="1">
-        <v>7.0999999046325684</v>
+        <v>7.1</v>
       </c>
     </row>
     <row r="312">
@@ -11140,7 +11140,7 @@
         <v>2021</v>
       </c>
       <c r="J312" s="1">
-        <v>0.10000000149011612</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="313">
@@ -11172,7 +11172,7 @@
         <v>2021</v>
       </c>
       <c r="J313" s="1">
-        <v>6.6999998092651367</v>
+        <v>6.7</v>
       </c>
     </row>
     <row r="314">
@@ -11204,7 +11204,7 @@
         <v>2021</v>
       </c>
       <c r="J314" s="1">
-        <v>0.20000000298023224</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="315">
@@ -11300,7 +11300,7 @@
         <v>2003</v>
       </c>
       <c r="J317" s="1">
-        <v>99.099998474121094</v>
+        <v>99.09999999999999</v>
       </c>
     </row>
     <row r="318">
@@ -11332,7 +11332,7 @@
         <v>2006</v>
       </c>
       <c r="J318" s="1">
-        <v>7.0999999046325684</v>
+        <v>7.1</v>
       </c>
     </row>
     <row r="319">
@@ -11364,7 +11364,7 @@
         <v>2006</v>
       </c>
       <c r="J319" s="1">
-        <v>38.799999237060547</v>
+        <v>38.8</v>
       </c>
     </row>
     <row r="320">
@@ -11396,7 +11396,7 @@
         <v>2020</v>
       </c>
       <c r="J320" s="1">
-        <v>0.69999998807907104</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="321">
@@ -11428,7 +11428,7 @@
         <v>2020</v>
       </c>
       <c r="J321" s="1">
-        <v>18.700000762939453</v>
+        <v>18.7</v>
       </c>
     </row>
     <row r="322">
@@ -11492,7 +11492,7 @@
         <v>2019</v>
       </c>
       <c r="J323" s="1">
-        <v>76.099998474121094</v>
+        <v>76.09999999999999</v>
       </c>
     </row>
     <row r="324">
@@ -11524,7 +11524,7 @@
         <v>2013</v>
       </c>
       <c r="J324" s="1">
-        <v>1.2000000476837158</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="325">
@@ -11556,7 +11556,7 @@
         <v>2013</v>
       </c>
       <c r="J325" s="1">
-        <v>43.299999237060547</v>
+        <v>43.3</v>
       </c>
     </row>
     <row r="326">
@@ -11588,7 +11588,7 @@
         <v>2017</v>
       </c>
       <c r="J326" s="1">
-        <v>0.40000000596046448</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="327">
@@ -11620,7 +11620,7 @@
         <v>2017</v>
       </c>
       <c r="J327" s="1">
-        <v>34.200000762939453</v>
+        <v>34.2</v>
       </c>
     </row>
     <row r="328">
@@ -11652,7 +11652,7 @@
         <v>2014</v>
       </c>
       <c r="J328" s="1">
-        <v>19.799999237060547</v>
+        <v>19.8</v>
       </c>
     </row>
     <row r="329">
@@ -11684,7 +11684,7 @@
         <v>2014</v>
       </c>
       <c r="J329" s="1">
-        <v>85.400001525878906</v>
+        <v>85.40000000000001</v>
       </c>
     </row>
     <row r="330">
@@ -11748,7 +11748,7 @@
         <v>2014</v>
       </c>
       <c r="J331" s="1">
-        <v>61.599998474121094</v>
+        <v>61.6</v>
       </c>
     </row>
     <row r="332">
@@ -11780,7 +11780,7 @@
         <v>2015</v>
       </c>
       <c r="J332" s="1">
-        <v>60.799999237060547</v>
+        <v>60.8</v>
       </c>
     </row>
     <row r="333">
@@ -11844,7 +11844,7 @@
         <v>2019</v>
       </c>
       <c r="J334" s="1">
-        <v>39.799999237060547</v>
+        <v>39.8</v>
       </c>
     </row>
     <row r="335">
